--- a/Code/Results/Cases/Case_8_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_45/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,49 +421,55 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.425736658812014</v>
+        <v>3.436646650268017</v>
       </c>
       <c r="C2">
-        <v>1.028303313739627</v>
+        <v>1.06729250190574</v>
       </c>
       <c r="D2">
-        <v>0.2468345622060468</v>
+        <v>0.2553389375412394</v>
       </c>
       <c r="E2">
-        <v>0.207625560500027</v>
+        <v>0.2119858024640493</v>
       </c>
       <c r="F2">
-        <v>0.7301683026734551</v>
+        <v>0.6966365166193853</v>
       </c>
       <c r="G2">
-        <v>0.0008027579695511954</v>
+        <v>0.001115138398467174</v>
       </c>
       <c r="H2">
-        <v>0.0003379734326216521</v>
+        <v>0.0006430613278733954</v>
       </c>
       <c r="I2">
-        <v>0.0006981518442614743</v>
+        <v>0.001285297823842235</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.1982187313945172</v>
+        <v>0.1778963641690492</v>
       </c>
       <c r="L2">
-        <v>0.2289490457832812</v>
+        <v>0.1103065208767067</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.03514991517155153</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2314418895952954</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -472,51 +478,57 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.459029753937244</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.355260291028429</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.985440212863978</v>
+        <v>2.997459003624215</v>
       </c>
       <c r="C3">
-        <v>0.8988609421908222</v>
+        <v>0.9268358234910181</v>
       </c>
       <c r="D3">
-        <v>0.2191254443488049</v>
+        <v>0.2271883977031024</v>
       </c>
       <c r="E3">
-        <v>0.1848163223128907</v>
+        <v>0.1894881026591761</v>
       </c>
       <c r="F3">
-        <v>0.69122363417803</v>
+        <v>0.6590228693957414</v>
       </c>
       <c r="G3">
-        <v>0.0008061583686382855</v>
+        <v>0.002394139880516996</v>
       </c>
       <c r="H3">
-        <v>6.813445963427256E-06</v>
+        <v>0.0001260228818267262</v>
       </c>
       <c r="I3">
-        <v>0.0004198781420159392</v>
+        <v>0.0007544869256452813</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2094282122500939</v>
+        <v>0.1877002623202344</v>
       </c>
       <c r="L3">
-        <v>0.2041720827977684</v>
+        <v>0.1162394788371728</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.03763937773317316</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2074932169368893</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -525,51 +537,57 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.412860872520994</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.309211636248932</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.714698140733447</v>
+        <v>2.727180921205218</v>
       </c>
       <c r="C4">
-        <v>0.8198308835382022</v>
+        <v>0.8412395062439089</v>
       </c>
       <c r="D4">
-        <v>0.2021811345680931</v>
+        <v>0.2100022988243353</v>
       </c>
       <c r="E4">
-        <v>0.1708277680200361</v>
+        <v>0.1756895435716999</v>
       </c>
       <c r="F4">
-        <v>0.6679757773849317</v>
+        <v>0.6362713125563104</v>
       </c>
       <c r="G4">
-        <v>0.0008083167174927075</v>
+        <v>0.003455300885689683</v>
       </c>
       <c r="H4">
-        <v>5.509851262930354E-05</v>
+        <v>4.955963882169456E-06</v>
       </c>
       <c r="I4">
-        <v>0.000476785332422125</v>
+        <v>0.0005871676852011731</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2167495166992133</v>
+        <v>0.1940054979597612</v>
       </c>
       <c r="L4">
-        <v>0.1889443316145076</v>
+        <v>0.1201180818721443</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.03965796861826876</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1927555540779338</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -578,51 +596,57 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.386556478396855</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.281933690306801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.604232121836617</v>
+        <v>2.616854502760589</v>
       </c>
       <c r="C5">
-        <v>0.7890670318068942</v>
+        <v>0.8078111286842216</v>
       </c>
       <c r="D5">
-        <v>0.1954467125322736</v>
+        <v>0.2031726194042989</v>
       </c>
       <c r="E5">
-        <v>0.1651662035121326</v>
+        <v>0.170104549723245</v>
       </c>
       <c r="F5">
-        <v>0.6579584199061301</v>
+        <v>0.6264140101639271</v>
       </c>
       <c r="G5">
-        <v>0.0008092181612874405</v>
+        <v>0.003955790250209062</v>
       </c>
       <c r="H5">
-        <v>0.0001348515868415667</v>
+        <v>2.353913878927472E-06</v>
       </c>
       <c r="I5">
-        <v>0.0006203756839751051</v>
+        <v>0.0006335738908846977</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2195648181807801</v>
+        <v>0.1963952254530472</v>
       </c>
       <c r="L5">
-        <v>0.1827023629334477</v>
+        <v>0.1216072399684762</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.04056379249146991</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1867107087126385</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -631,51 +655,57 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.374395427263735</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.269231791615368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.585858492253578</v>
+        <v>2.598499462301277</v>
       </c>
       <c r="C6">
-        <v>0.7856074070729449</v>
+        <v>0.8038633663589678</v>
       </c>
       <c r="D6">
-        <v>0.1945197839992687</v>
+        <v>0.2022247506660904</v>
       </c>
       <c r="E6">
-        <v>0.1642714334036981</v>
+        <v>0.1692212265781059</v>
       </c>
       <c r="F6">
-        <v>0.6554485627973676</v>
+        <v>0.6239697208141735</v>
       </c>
       <c r="G6">
-        <v>0.0008093736943096181</v>
+        <v>0.004045678774860895</v>
       </c>
       <c r="H6">
-        <v>0.0001519944223395964</v>
+        <v>4.738565240192116E-06</v>
       </c>
       <c r="I6">
-        <v>0.0007362967918975727</v>
+        <v>0.0007467366679252407</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2197052058087152</v>
+        <v>0.1964942045122839</v>
       </c>
       <c r="L6">
-        <v>0.1816283915143586</v>
+        <v>0.1216755994245275</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.04067495711317903</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1856709803175463</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -684,51 +714,57 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.370051781523529</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.264917706216423</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.713143812862825</v>
+        <v>2.725532303695843</v>
       </c>
       <c r="C7">
-        <v>0.8239128623443435</v>
+        <v>0.8428237670159433</v>
       </c>
       <c r="D7">
-        <v>0.2026113190409546</v>
+        <v>0.2113383543619562</v>
       </c>
       <c r="E7">
-        <v>0.1708754515618729</v>
+        <v>0.1759441366157333</v>
       </c>
       <c r="F7">
-        <v>0.6655035228032133</v>
+        <v>0.6298974585658925</v>
       </c>
       <c r="G7">
-        <v>0.0008083414686153149</v>
+        <v>0.003722661335577637</v>
       </c>
       <c r="H7">
-        <v>5.653326350252286E-05</v>
+        <v>4.175002769279956E-06</v>
       </c>
       <c r="I7">
-        <v>0.0007056768449595907</v>
+        <v>0.0008502112309844989</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2158800062512789</v>
+        <v>0.1922998165656367</v>
       </c>
       <c r="L7">
-        <v>0.1887590125192347</v>
+        <v>0.1191162258181304</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.03937174697436463</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1923848360516374</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -737,51 +773,57 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.379967865197443</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.264806528059808</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.273901539113751</v>
+        <v>3.284914939717851</v>
       </c>
       <c r="C8">
-        <v>0.9895763324326481</v>
+        <v>1.016704748100494</v>
       </c>
       <c r="D8">
-        <v>0.2379585239108621</v>
+        <v>0.2493896492949403</v>
       </c>
       <c r="E8">
-        <v>0.1999221115439198</v>
+        <v>0.20509233937819</v>
       </c>
       <c r="F8">
-        <v>0.7135078151139069</v>
+        <v>0.6673944243229002</v>
       </c>
       <c r="G8">
-        <v>0.00080393133871474</v>
+        <v>0.003034865183657587</v>
       </c>
       <c r="H8">
-        <v>0.0001681620408551243</v>
+        <v>0.0004082535321263681</v>
       </c>
       <c r="I8">
-        <v>0.0008222594609144096</v>
+        <v>0.001370261933272943</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2008108094687167</v>
+        <v>0.1772915657778622</v>
       </c>
       <c r="L8">
-        <v>0.2202735718263682</v>
+        <v>0.1102546637445805</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.03497004816354377</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2224229467285781</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -790,51 +832,57 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.434195287090688</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.295458746932539</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.371418655790762</v>
+        <v>4.378010281840886</v>
       </c>
       <c r="C9">
-        <v>1.310406542666158</v>
+        <v>1.363747821897789</v>
       </c>
       <c r="D9">
-        <v>0.3069978994229814</v>
+        <v>0.3206004930571424</v>
       </c>
       <c r="E9">
-        <v>0.2568936940580215</v>
+        <v>0.2614692627077275</v>
       </c>
       <c r="F9">
-        <v>0.8176142553603114</v>
+        <v>0.7624765653619647</v>
       </c>
       <c r="G9">
-        <v>0.0007958095183056013</v>
+        <v>0.001649408756499327</v>
       </c>
       <c r="H9">
-        <v>0.002551459057627881</v>
+        <v>0.002885873690649077</v>
       </c>
       <c r="I9">
-        <v>0.00269180372455935</v>
+        <v>0.003365780997248713</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.1765470143717796</v>
+        <v>0.1549400193995485</v>
       </c>
       <c r="L9">
-        <v>0.2822626682848579</v>
+        <v>0.09743101551215538</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.03119841622020836</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2820243516198104</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -843,51 +891,57 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.569647449022028</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.414319482380392</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.177239240179006</v>
+        <v>5.178287342088367</v>
       </c>
       <c r="C10">
-        <v>1.547560730005614</v>
+        <v>1.604407337588327</v>
       </c>
       <c r="D10">
-        <v>0.3514374813348269</v>
+        <v>0.3719911037871668</v>
       </c>
       <c r="E10">
-        <v>0.2885259255914718</v>
+        <v>0.2937685012183877</v>
       </c>
       <c r="F10">
-        <v>0.881027500886276</v>
+        <v>0.7961411125275362</v>
       </c>
       <c r="G10">
-        <v>0.0007902763944702765</v>
+        <v>0.009300347319399549</v>
       </c>
       <c r="H10">
-        <v>0.005815964983181487</v>
+        <v>0.005808052235336092</v>
       </c>
       <c r="I10">
-        <v>0.005575396147199818</v>
+        <v>0.005853449738744132</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.158416422438636</v>
+        <v>0.1338980983481459</v>
       </c>
       <c r="L10">
-        <v>0.3129705818576412</v>
+        <v>0.0870215927813307</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.02832737882448377</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3098401015368637</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -896,51 +950,57 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.649647985734873</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.419844024854541</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.539244867655214</v>
+        <v>5.53718471253643</v>
       </c>
       <c r="C11">
-        <v>1.627008121569531</v>
+        <v>1.642760057566704</v>
       </c>
       <c r="D11">
-        <v>0.3125595695204169</v>
+        <v>0.3418082347609186</v>
       </c>
       <c r="E11">
-        <v>0.2184822665775457</v>
+        <v>0.2247055142267058</v>
       </c>
       <c r="F11">
-        <v>0.771026617285969</v>
+        <v>0.6530508895343274</v>
       </c>
       <c r="G11">
-        <v>0.000788763979537968</v>
+        <v>0.04307449553492759</v>
       </c>
       <c r="H11">
-        <v>0.02432772816483109</v>
+        <v>0.02407837665295887</v>
       </c>
       <c r="I11">
-        <v>0.007074723821744122</v>
+        <v>0.007131370134632498</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.1307289353745613</v>
+        <v>0.1075447484400858</v>
       </c>
       <c r="L11">
-        <v>0.2119978484699772</v>
+        <v>0.07759427986323209</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.01923140516951616</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2074204464234626</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -949,51 +1009,57 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.434110991486364</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.120822759417194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.674524363911416</v>
+        <v>5.671583483411155</v>
       </c>
       <c r="C12">
-        <v>1.635542073688782</v>
+        <v>1.624863341130549</v>
       </c>
       <c r="D12">
-        <v>0.2718999802847719</v>
+        <v>0.3028298649596621</v>
       </c>
       <c r="E12">
-        <v>0.1622683148536836</v>
+        <v>0.1680632878859356</v>
       </c>
       <c r="F12">
-        <v>0.6737158317866516</v>
+        <v>0.5509452289728358</v>
       </c>
       <c r="G12">
-        <v>0.0007885418366131833</v>
+        <v>0.06735860007638905</v>
       </c>
       <c r="H12">
-        <v>0.06256405506459117</v>
+        <v>0.06226333745158286</v>
       </c>
       <c r="I12">
-        <v>0.007288546680730867</v>
+        <v>0.007249461545752567</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.1151941569722119</v>
+        <v>0.09719538492121149</v>
       </c>
       <c r="L12">
-        <v>0.1409233808432546</v>
+        <v>0.07469183893343656</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.01478990493798182</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1367375513860125</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1002,51 +1068,57 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.254551855638368</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.9309850610953276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.641675810247989</v>
+        <v>5.639753463128784</v>
       </c>
       <c r="C13">
-        <v>1.597075835398527</v>
+        <v>1.575822497101001</v>
       </c>
       <c r="D13">
-        <v>0.2286051372062872</v>
+        <v>0.2545664310395352</v>
       </c>
       <c r="E13">
-        <v>0.113905160942835</v>
+        <v>0.1181909781975676</v>
       </c>
       <c r="F13">
-        <v>0.5770744309527558</v>
+        <v>0.4742807787329397</v>
       </c>
       <c r="G13">
-        <v>0.0007893168499619423</v>
+        <v>0.06136586662939436</v>
       </c>
       <c r="H13">
-        <v>0.1175350795367933</v>
+        <v>0.1173246385896221</v>
       </c>
       <c r="I13">
-        <v>0.006802638835528896</v>
+        <v>0.006869015763363073</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.1064432607373718</v>
+        <v>0.09500105100746006</v>
       </c>
       <c r="L13">
-        <v>0.08877724964800748</v>
+        <v>0.07443937045894966</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.01304686870106364</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.08610798535483255</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1055,51 +1127,57 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.081998681586967</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.8108141612945587</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.542503892472155</v>
+        <v>5.542067863412001</v>
       </c>
       <c r="C14">
-        <v>1.550404043050378</v>
+        <v>1.528419803917927</v>
       </c>
       <c r="D14">
-        <v>0.1978512742750951</v>
+        <v>0.2181074617227807</v>
       </c>
       <c r="E14">
-        <v>0.08522505849954243</v>
+        <v>0.08827953908882691</v>
       </c>
       <c r="F14">
-        <v>0.5105668899813836</v>
+        <v>0.4299635213769264</v>
       </c>
       <c r="G14">
-        <v>0.0007903075322285491</v>
+        <v>0.04460917828843236</v>
       </c>
       <c r="H14">
-        <v>0.1662345034165327</v>
+        <v>0.16613281212544</v>
       </c>
       <c r="I14">
-        <v>0.006247264720681045</v>
+        <v>0.006477423550753869</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.1036318332535036</v>
+        <v>0.09616590532036184</v>
       </c>
       <c r="L14">
-        <v>0.06381088510922162</v>
+        <v>0.07493228398032814</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.01284209192059871</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.06238045371473433</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1108,51 +1186,57 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.9653398906505117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.7514766520765335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.482468474596658</v>
+        <v>5.482757142738535</v>
       </c>
       <c r="C15">
-        <v>1.531049007417892</v>
+        <v>1.511623501396855</v>
       </c>
       <c r="D15">
-        <v>0.1897187692118365</v>
+        <v>0.207668564180068</v>
       </c>
       <c r="E15">
-        <v>0.07873602834550297</v>
+        <v>0.08143067677848492</v>
       </c>
       <c r="F15">
-        <v>0.4933101186746995</v>
+        <v>0.4216684162886111</v>
       </c>
       <c r="G15">
-        <v>0.0007907776310821079</v>
+        <v>0.03615703906369561</v>
       </c>
       <c r="H15">
-        <v>0.1784737255695603</v>
+        <v>0.1784208887004866</v>
       </c>
       <c r="I15">
-        <v>0.006075780921329432</v>
+        <v>0.006402161158186814</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.1039162683364618</v>
+        <v>0.09727595886437079</v>
       </c>
       <c r="L15">
-        <v>0.0591483058774589</v>
+        <v>0.07522276458815513</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.01308256303814326</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.05810611444521463</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1161,51 +1245,57 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.9356300321787074</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.7448254201788842</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.141137150516442</v>
+        <v>5.144707506727514</v>
       </c>
       <c r="C16">
-        <v>1.440022129330487</v>
+        <v>1.443448696683163</v>
       </c>
       <c r="D16">
-        <v>0.1809239154587061</v>
+        <v>0.1909091121475228</v>
       </c>
       <c r="E16">
-        <v>0.0765603759099136</v>
+        <v>0.07857771829515769</v>
       </c>
       <c r="F16">
-        <v>0.485866544077318</v>
+        <v>0.4454732848459102</v>
       </c>
       <c r="G16">
-        <v>0.0007929839793875959</v>
+        <v>0.00796128744486424</v>
       </c>
       <c r="H16">
-        <v>0.1644996977931186</v>
+        <v>0.1646389671249437</v>
       </c>
       <c r="I16">
-        <v>0.004937471562017848</v>
+        <v>0.00558197552909423</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.1122951262692449</v>
+        <v>0.1053978601409621</v>
       </c>
       <c r="L16">
-        <v>0.05829091439802347</v>
+        <v>0.07728963437363046</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.01570370874520544</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.05832728187405856</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1214,51 +1304,57 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.9335152665247364</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.8226238882959365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.93268853703006</v>
+        <v>4.937804432057078</v>
       </c>
       <c r="C17">
-        <v>1.395299833876152</v>
+        <v>1.412854027626565</v>
       </c>
       <c r="D17">
-        <v>0.1901096985491648</v>
+        <v>0.1975064930933286</v>
       </c>
       <c r="E17">
-        <v>0.08898943415816518</v>
+        <v>0.09098713133082725</v>
       </c>
       <c r="F17">
-        <v>0.5146856548666605</v>
+        <v>0.4850364501431557</v>
       </c>
       <c r="G17">
-        <v>0.0007941580377717725</v>
+        <v>0.002020475856948423</v>
       </c>
       <c r="H17">
-        <v>0.1261266482529777</v>
+        <v>0.1263371783873737</v>
       </c>
       <c r="I17">
-        <v>0.004411377976261122</v>
+        <v>0.005189189557630591</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.1200988191017256</v>
+        <v>0.1122555669761458</v>
       </c>
       <c r="L17">
-        <v>0.06876017301580717</v>
+        <v>0.07953732382116802</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.01792533930576257</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.0692181710665416</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1267,51 +1363,57 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.9927224562704708</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.9092607652739702</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.814229410467078</v>
+        <v>4.819894638773008</v>
       </c>
       <c r="C18">
-        <v>1.380927679421518</v>
+        <v>1.412384040399502</v>
       </c>
       <c r="D18">
-        <v>0.2168255622932236</v>
+        <v>0.2241427857147755</v>
       </c>
       <c r="E18">
-        <v>0.120313065484698</v>
+        <v>0.1225924331826</v>
       </c>
       <c r="F18">
-        <v>0.5824281292797053</v>
+        <v>0.5532368011444007</v>
       </c>
       <c r="G18">
-        <v>0.0007945158843237844</v>
+        <v>0.000679063546165537</v>
       </c>
       <c r="H18">
-        <v>0.0732504537135128</v>
+        <v>0.07349092363179466</v>
       </c>
       <c r="I18">
-        <v>0.004016814131197144</v>
+        <v>0.00479204213614981</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.1299088343213608</v>
+        <v>0.1201848947116542</v>
       </c>
       <c r="L18">
-        <v>0.1003486875383039</v>
+        <v>0.08255169434326204</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.02062445594423501</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1008638118401848</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1320,51 +1422,57 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.120551958864553</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.037572489918432</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.776243233930757</v>
+        <v>4.781710629097233</v>
       </c>
       <c r="C19">
-        <v>1.400489427579828</v>
+        <v>1.446673731131852</v>
       </c>
       <c r="D19">
-        <v>0.2588199551860555</v>
+        <v>0.2675917317654495</v>
       </c>
       <c r="E19">
-        <v>0.1724098874899624</v>
+        <v>0.1751950678884988</v>
       </c>
       <c r="F19">
-        <v>0.6783172406121736</v>
+        <v>0.6432043195799153</v>
       </c>
       <c r="G19">
-        <v>0.0007941448445483743</v>
+        <v>0.0004462867006722604</v>
       </c>
       <c r="H19">
-        <v>0.02855335682197335</v>
+        <v>0.02880800647366755</v>
       </c>
       <c r="I19">
-        <v>0.004248879216663504</v>
+        <v>0.005038244114636825</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.1418850905290299</v>
+        <v>0.1292772793093118</v>
       </c>
       <c r="L19">
-        <v>0.1619651198621668</v>
+        <v>0.08615220176142735</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.02393318724451809</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.162181680192937</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1373,51 +1481,57 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.294176274140995</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.195113938834595</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.965326662201164</v>
+        <v>4.968406943539208</v>
       </c>
       <c r="C20">
-        <v>1.499351085711169</v>
+        <v>1.563748057031944</v>
       </c>
       <c r="D20">
-        <v>0.3410877789544031</v>
+        <v>0.3563040445594652</v>
       </c>
       <c r="E20">
-        <v>0.2801559534624545</v>
+        <v>0.2844300356743332</v>
       </c>
       <c r="F20">
-        <v>0.8561964796433443</v>
+        <v>0.7939545892231621</v>
       </c>
       <c r="G20">
-        <v>0.0007917436962533045</v>
+        <v>0.002564458692695837</v>
       </c>
       <c r="H20">
-        <v>0.004811839609119239</v>
+        <v>0.004962772811780702</v>
       </c>
       <c r="I20">
-        <v>0.005403960635049998</v>
+        <v>0.006021153517314914</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.1602842192473339</v>
+        <v>0.1397779082985267</v>
       </c>
       <c r="L20">
-        <v>0.3039582897309288</v>
+        <v>0.08976470643689272</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.02918511192267914</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.3023004601310504</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1426,51 +1540,57 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.60683692087656</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.436391137042989</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.584945675512358</v>
+        <v>5.580789050920998</v>
       </c>
       <c r="C21">
-        <v>1.686034925035699</v>
+        <v>1.70921963195849</v>
       </c>
       <c r="D21">
-        <v>0.3860833692259149</v>
+        <v>0.4263072794786638</v>
       </c>
       <c r="E21">
-        <v>0.3208593764019412</v>
+        <v>0.3301695640437714</v>
       </c>
       <c r="F21">
-        <v>0.933070254013316</v>
+        <v>0.7715914880187711</v>
       </c>
       <c r="G21">
-        <v>0.0007874054090105152</v>
+        <v>0.06436210518366892</v>
       </c>
       <c r="H21">
-        <v>0.007963831748670852</v>
+        <v>0.007473781523576806</v>
       </c>
       <c r="I21">
-        <v>0.008086292059953593</v>
+        <v>0.007949870808313442</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.1516733093613762</v>
+        <v>0.1153004122719441</v>
       </c>
       <c r="L21">
-        <v>0.3508476205333579</v>
+        <v>0.0798186263542795</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.02336510717670492</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3430637961369314</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1479,51 +1599,57 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.722439775197728</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.29591123649115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.990253398536993</v>
+        <v>5.980888184097125</v>
       </c>
       <c r="C22">
-        <v>1.800752258286707</v>
+        <v>1.791916161554582</v>
       </c>
       <c r="D22">
-        <v>0.4113310900963256</v>
+        <v>0.4701919067618405</v>
       </c>
       <c r="E22">
-        <v>0.3420103067364337</v>
+        <v>0.3551226348813898</v>
       </c>
       <c r="F22">
-        <v>0.9791262579248894</v>
+        <v>0.7482783656117959</v>
       </c>
       <c r="G22">
-        <v>0.000784669126705273</v>
+        <v>0.1540370029886233</v>
       </c>
       <c r="H22">
-        <v>0.01036193040147869</v>
+        <v>0.009335513619442938</v>
       </c>
       <c r="I22">
-        <v>0.009884244637546225</v>
+        <v>0.009047620208644247</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.1464565027551927</v>
+        <v>0.1006220606646444</v>
       </c>
       <c r="L22">
-        <v>0.3741014007995602</v>
+        <v>0.07471456897565276</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.01960035607661226</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3620627783308663</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1532,51 +1658,57 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.794393650043645</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.192934998395714</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.773977766392136</v>
+        <v>5.767668822397923</v>
       </c>
       <c r="C23">
-        <v>1.73393251886165</v>
+        <v>1.748966373629514</v>
       </c>
       <c r="D23">
-        <v>0.3972086662037952</v>
+        <v>0.4432746700839516</v>
       </c>
       <c r="E23">
-        <v>0.3305582217726766</v>
+        <v>0.3409900554727301</v>
       </c>
       <c r="F23">
-        <v>0.9571775750983846</v>
+        <v>0.7727693232486672</v>
       </c>
       <c r="G23">
-        <v>0.0007861146306233994</v>
+        <v>0.0879141656022</v>
       </c>
       <c r="H23">
-        <v>0.009053518237077812</v>
+        <v>0.008349491140480697</v>
       </c>
       <c r="I23">
-        <v>0.008627156735537156</v>
+        <v>0.008139762435066089</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.1501649895595101</v>
+        <v>0.1102075481988791</v>
       </c>
       <c r="L23">
-        <v>0.3618001604045276</v>
+        <v>0.07782673894203551</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.02252036350914999</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3525177578072203</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1585,51 +1717,57 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.763139002308179</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.277995562000314</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.955780115347522</v>
+        <v>4.958863872594293</v>
       </c>
       <c r="C24">
-        <v>1.491181581215073</v>
+        <v>1.557559714068873</v>
       </c>
       <c r="D24">
-        <v>0.3450283886837582</v>
+        <v>0.3603306428603048</v>
       </c>
       <c r="E24">
-        <v>0.2876410721261777</v>
+        <v>0.2919712795457912</v>
       </c>
       <c r="F24">
-        <v>0.8719496115177066</v>
+        <v>0.8090794652563602</v>
       </c>
       <c r="G24">
-        <v>0.0007917070032962311</v>
+        <v>0.002395748032165024</v>
       </c>
       <c r="H24">
-        <v>0.00482155624184899</v>
+        <v>0.004974297848251874</v>
       </c>
       <c r="I24">
-        <v>0.004968971180803194</v>
+        <v>0.005488800437800201</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.1638720847817243</v>
+        <v>0.1426382389732517</v>
       </c>
       <c r="L24">
-        <v>0.3152219984593359</v>
+        <v>0.09084458597621392</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.03025714825257531</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3135229201132859</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1638,51 +1776,57 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.639499198535219</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.467075806133352</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.074472288479171</v>
+        <v>4.08268239154819</v>
       </c>
       <c r="C25">
-        <v>1.23140210925726</v>
+        <v>1.280783447346096</v>
       </c>
       <c r="D25">
-        <v>0.2891894860125745</v>
+        <v>0.3008103458065534</v>
       </c>
       <c r="E25">
-        <v>0.2416701792749976</v>
+        <v>0.2460991711014202</v>
       </c>
       <c r="F25">
-        <v>0.7845461195925196</v>
+        <v>0.73813651954584</v>
       </c>
       <c r="G25">
-        <v>0.0007979687527979684</v>
+        <v>0.0008177488355460838</v>
       </c>
       <c r="H25">
-        <v>0.001646224288524234</v>
+        <v>0.00202353544305911</v>
       </c>
       <c r="I25">
-        <v>0.002331818582873346</v>
+        <v>0.003136176804011015</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.1811196848565206</v>
+        <v>0.1605785790951781</v>
       </c>
       <c r="L25">
-        <v>0.2652907753635105</v>
+        <v>0.1006451418830068</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.03173490520630295</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2660083730848726</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -1691,7 +1835,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.519393457029025</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.385754667477357</v>
       </c>
     </row>
   </sheetData>
